--- a/Documentación/Diccionario.xlsx
+++ b/Documentación/Diccionario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodxf\Desktop\PG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51df8314800c9af6/Documentos/GitHub/ProyectoGrupalHENRY/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="11_0D1CCC9E401E15B702A6C72D2A793599F0DFD3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8873AA67-CDDB-45D8-9700-CD188B291B07}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_0D1CCC9E401E15B702A6C72D2A793599F0DFD3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2931C581-135D-4AA0-B7B2-005EE040D3C5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yellow Taxi Trip Records" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="170">
   <si>
     <t>Fuente: https://www.nyc.gov/assets/tlc/downloads/pdf/data_dictionary_trip_records_yellow.pdf</t>
   </si>
@@ -424,9 +424,6 @@
   </si>
   <si>
     <t>ruido.csv</t>
-  </si>
-  <si>
-    <t>descripción</t>
   </si>
   <si>
     <t>Observación</t>
@@ -560,7 +557,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,7 +599,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -653,13 +650,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -943,21 +940,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -965,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -973,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -981,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -989,7 +986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -997,7 +994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1005,7 +1002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1013,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1021,7 +1018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1029,7 +1026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1035,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1046,7 +1043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1054,7 +1051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1062,7 +1059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1070,7 +1067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1078,7 +1075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1086,7 +1083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1094,7 +1091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -1102,7 +1099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1110,7 +1107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1118,16 +1115,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
   </sheetData>
@@ -1140,21 +1137,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1178,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1186,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1226,7 +1223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1235,7 +1232,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1243,7 +1240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1251,7 +1248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +1256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1267,7 +1264,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1275,7 +1272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1299,7 +1296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1320,14 +1317,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1335,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1343,7 +1340,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1359,7 +1356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1367,46 +1364,46 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
   </sheetData>
@@ -1422,18 +1419,18 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1448,441 +1445,427 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28.9" customHeight="1">
+    <row r="8" spans="1:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:16" ht="28.15" customHeight="1">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:16" ht="28.9" customHeight="1">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:16" ht="28.9" customHeight="1">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="I12" s="12" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="1:16" ht="15">
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" ht="28.9" customHeight="1">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" ht="28.9" customHeight="1">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="59.45" customHeight="1">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
       <c r="H21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
       <c r="H22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="43.15" customHeight="1">
+    <row r="23" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" ht="31.15" customHeight="1">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" ht="57.6" customHeight="1">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="45" customHeight="1">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" ht="28.9" customHeight="1">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" ht="43.15" customHeight="1">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="H30" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.9" customHeight="1">
+    <row r="31" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B13:G13"/>
     <mergeCell ref="I12:P13"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B26:G26"/>
@@ -1899,6 +1882,20 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1908,26 +1905,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7F7F3C-CCB3-451A-9728-4B90D1AEA4B5}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="46.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -1935,270 +1932,270 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="B4" t="s">
         <v>131</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" t="s">
         <v>133</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="B5" t="s">
         <v>135</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="D5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="7">
         <v>4072951</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="7">
         <v>-7399388</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
         <v>141</v>
-      </c>
-      <c r="B8" t="s">
-        <v>142</v>
       </c>
       <c r="C8" s="8">
         <v>2019</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
         <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>144</v>
       </c>
       <c r="C9" s="8">
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
         <v>145</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>147</v>
       </c>
-      <c r="D10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>149</v>
       </c>
       <c r="C11" s="7">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
         <v>150</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>152</v>
       </c>
-      <c r="D12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>153</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>155</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>157</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>159</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>161</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>163</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>165</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>167</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>169</v>
       </c>
-      <c r="B21" t="s">
-        <v>170</v>
-      </c>
       <c r="C21" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Diccionario.xlsx
+++ b/Documentación/Diccionario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51df8314800c9af6/Documentos/GitHub/ProyectoGrupalHENRY/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_0D1CCC9E401E15B702A6C72D2A793599F0DFD3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2931C581-135D-4AA0-B7B2-005EE040D3C5}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="11_0D1CCC9E401E15B702A6C72D2A793599F0DFD3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35E2F3EC-B913-4FD7-B2C5-084F15B5AFE1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yellow Taxi Trip Records" sheetId="1" r:id="rId1"/>
@@ -673,6 +673,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1137,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1415,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,6 +1870,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="I12:P13"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B26:G26"/>
@@ -1882,20 +1900,6 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
